--- a/Documentos/DataSet.xlsx
+++ b/Documentos/DataSet.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RONALD\Documents\EAFIT\2017-1\Base de datos\Proyecto\SpaceManager\CRUD - DICCIONARIO- DIEÑO MER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RONALD\Documents\EAFIT\2017-1\Base de datos\Proyecto\SpaceManager\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Organizacion" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,8 @@
     <sheet name="Nivel" sheetId="11" r:id="rId11"/>
     <sheet name="Espacio" sheetId="13" r:id="rId12"/>
     <sheet name="Hoja14" sheetId="14" r:id="rId13"/>
-    <sheet name="Espacios Publicos" sheetId="12" r:id="rId14"/>
+    <sheet name="Hoja1" sheetId="15" r:id="rId14"/>
+    <sheet name="Espacios Publicos" sheetId="12" r:id="rId15"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -1008,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,7 +1672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
@@ -2683,6 +2684,18 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
